--- a/openpy_fx_tools_dss/IMEX_to_DSS/xlsx_DSS_xlsx/Examples/13NodeIEEE/DSSHelp_Default.xlsx
+++ b/openpy_fx_tools_dss/IMEX_to_DSS/xlsx_DSS_xlsx/Examples/13NodeIEEE/DSSHelp_Default.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\GitHub\OpenPy-fx-tools-DSS\openpy_fx_tools_dss\IMEX_to_DSS\xlsx_DSS_xlsx\Examples\13NodeIEEE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC98D19-EEF1-4C50-9BA1-7E5483FBB357}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDA0890-F8FF-4775-B82F-7F0049A8CD59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="5" r:id="rId1"/>
-    <sheet name="Hoja3" sheetId="8" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="7" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="6" r:id="rId4"/>
-    <sheet name="DSSHelp" sheetId="1" r:id="rId5"/>
+    <sheet name="Hoja2" sheetId="7" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId3"/>
+    <sheet name="DSSHelp" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DSSHelp!$B$1:$Q$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">DSSHelp!$B$1:$Q$132</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Principal!$A$1:$O$1694</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15142" uniqueCount="3735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15195" uniqueCount="3741">
   <si>
     <t>Object = EXECUTIVE</t>
   </si>
@@ -11233,6 +11232,24 @@
   </si>
   <si>
     <t>110% of kVA rating of Winding 1</t>
+  </si>
+  <si>
+    <t>Capacitor</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>[1.0]</t>
+  </si>
+  <si>
+    <t>BaseFreq</t>
+  </si>
+  <si>
+    <t>RegControl</t>
+  </si>
+  <si>
+    <t>ptradio</t>
   </si>
 </sst>
 </file>
@@ -12134,10 +12151,10 @@
   <dimension ref="A1:F1694"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D381" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D1166" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F580" sqref="F580"/>
+      <selection pane="bottomRight" activeCell="F1171" sqref="F1171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16718,7 +16735,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
         <v>2945</v>
       </c>
@@ -17198,7 +17215,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
         <v>3062</v>
       </c>
@@ -18105,7 +18122,7 @@
         <v>3062</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>2947</v>
+        <v>3735</v>
       </c>
       <c r="C471" s="5" t="s">
         <v>3005</v>
@@ -18113,7 +18130,7 @@
       <c r="D471" s="5" t="s">
         <v>3116</v>
       </c>
-      <c r="E471"/>
+      <c r="E471" s="1"/>
       <c r="F471" s="9" t="s">
         <v>1027</v>
       </c>
@@ -18123,7 +18140,7 @@
         <v>3062</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>2947</v>
+        <v>3735</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>3006</v>
@@ -18131,17 +18148,17 @@
       <c r="D472" s="5" t="s">
         <v>3117</v>
       </c>
-      <c r="E472"/>
+      <c r="E472" s="1"/>
       <c r="F472" s="9" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
         <v>3062</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>2947</v>
+        <v>3735</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>3007</v>
@@ -18159,7 +18176,7 @@
         <v>3062</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>2947</v>
+        <v>3735</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>3008</v>
@@ -18177,7 +18194,7 @@
         <v>3062</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>2947</v>
+        <v>3735</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>3009</v>
@@ -18195,7 +18212,7 @@
         <v>3062</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>2947</v>
+        <v>3735</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>3010</v>
@@ -18203,7 +18220,9 @@
       <c r="D476" s="5" t="s">
         <v>3072</v>
       </c>
-      <c r="E476"/>
+      <c r="E476" s="5" t="s">
+        <v>3725</v>
+      </c>
       <c r="F476" s="9" t="s">
         <v>1037</v>
       </c>
@@ -18213,7 +18232,7 @@
         <v>3062</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>2947</v>
+        <v>3735</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>3011</v>
@@ -18231,7 +18250,7 @@
         <v>3062</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>2947</v>
+        <v>3735</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>3012</v>
@@ -18249,7 +18268,7 @@
         <v>3062</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>2947</v>
+        <v>3735</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>3013</v>
@@ -18257,7 +18276,9 @@
       <c r="D479" s="5" t="s">
         <v>3122</v>
       </c>
-      <c r="E479"/>
+      <c r="E479" s="1">
+        <v>0</v>
+      </c>
       <c r="F479" s="9" t="s">
         <v>1043</v>
       </c>
@@ -18267,7 +18288,7 @@
         <v>3062</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>2947</v>
+        <v>3735</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>3014</v>
@@ -18275,7 +18296,7 @@
       <c r="D480" s="5" t="s">
         <v>3123</v>
       </c>
-      <c r="E480"/>
+      <c r="E480" s="1"/>
       <c r="F480" s="9" t="s">
         <v>1045</v>
       </c>
@@ -18285,7 +18306,7 @@
         <v>3062</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>2947</v>
+        <v>3735</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>3015</v>
@@ -18293,7 +18314,9 @@
       <c r="D481" s="5" t="s">
         <v>3124</v>
       </c>
-      <c r="E481"/>
+      <c r="E481" s="1">
+        <v>0</v>
+      </c>
       <c r="F481" s="9" t="s">
         <v>1047</v>
       </c>
@@ -18303,7 +18326,7 @@
         <v>3062</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>2947</v>
+        <v>3735</v>
       </c>
       <c r="C482" s="5" t="s">
         <v>3016</v>
@@ -18311,7 +18334,9 @@
       <c r="D482" s="5" t="s">
         <v>3125</v>
       </c>
-      <c r="E482"/>
+      <c r="E482" s="1">
+        <v>1</v>
+      </c>
       <c r="F482" s="9" t="s">
         <v>1049</v>
       </c>
@@ -18321,7 +18346,7 @@
         <v>3062</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>2947</v>
+        <v>3735</v>
       </c>
       <c r="C483" s="5" t="s">
         <v>3017</v>
@@ -18329,7 +18354,9 @@
       <c r="D483" s="5" t="s">
         <v>3126</v>
       </c>
-      <c r="E483"/>
+      <c r="E483" s="1" t="s">
+        <v>3737</v>
+      </c>
       <c r="F483" s="9" t="s">
         <v>1051</v>
       </c>
@@ -18339,7 +18366,7 @@
         <v>3062</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>2947</v>
+        <v>3735</v>
       </c>
       <c r="C484" s="5" t="s">
         <v>3018</v>
@@ -18357,7 +18384,7 @@
         <v>3062</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>2947</v>
+        <v>3735</v>
       </c>
       <c r="C485" s="5" t="s">
         <v>3019</v>
@@ -18375,7 +18402,7 @@
         <v>3062</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>2947</v>
+        <v>3735</v>
       </c>
       <c r="C486" s="5" t="s">
         <v>3020</v>
@@ -18383,7 +18410,9 @@
       <c r="D486" s="5" t="s">
         <v>3110</v>
       </c>
-      <c r="E486"/>
+      <c r="E486" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="F486" s="9" t="s">
         <v>1015</v>
       </c>
@@ -18393,7 +18422,7 @@
         <v>3062</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>2947</v>
+        <v>3735</v>
       </c>
       <c r="C487" s="5" t="s">
         <v>3021</v>
@@ -18401,7 +18430,9 @@
       <c r="D487" s="5" t="s">
         <v>3111</v>
       </c>
-      <c r="E487"/>
+      <c r="E487" s="1">
+        <v>100</v>
+      </c>
       <c r="F487" s="9" t="s">
         <v>1017</v>
       </c>
@@ -18411,7 +18442,7 @@
         <v>3062</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>2947</v>
+        <v>3735</v>
       </c>
       <c r="C488" s="5" t="s">
         <v>3022</v>
@@ -18419,7 +18450,9 @@
       <c r="D488" s="5" t="s">
         <v>3112</v>
       </c>
-      <c r="E488"/>
+      <c r="E488" s="1">
+        <v>3</v>
+      </c>
       <c r="F488" s="9" t="s">
         <v>1019</v>
       </c>
@@ -18429,7 +18462,7 @@
         <v>3062</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>2947</v>
+        <v>3735</v>
       </c>
       <c r="C489" s="5" t="s">
         <v>3023</v>
@@ -18437,7 +18470,9 @@
       <c r="D489" s="5" t="s">
         <v>3113</v>
       </c>
-      <c r="E489"/>
+      <c r="E489" s="5" t="s">
+        <v>3738</v>
+      </c>
       <c r="F489" s="9" t="s">
         <v>1021</v>
       </c>
@@ -18447,7 +18482,7 @@
         <v>3062</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>2947</v>
+        <v>3735</v>
       </c>
       <c r="C490" s="5" t="s">
         <v>3024</v>
@@ -18455,7 +18490,9 @@
       <c r="D490" s="5" t="s">
         <v>3114</v>
       </c>
-      <c r="E490"/>
+      <c r="E490" s="5" t="s">
+        <v>3736</v>
+      </c>
       <c r="F490" s="9" t="s">
         <v>1023</v>
       </c>
@@ -18465,7 +18502,7 @@
         <v>3062</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>2947</v>
+        <v>3735</v>
       </c>
       <c r="C491" s="5" t="s">
         <v>3025</v>
@@ -18550,7 +18587,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="5" t="s">
         <v>3062</v>
       </c>
@@ -18966,7 +19003,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
         <v>3062</v>
       </c>
@@ -19614,7 +19651,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="5" t="s">
         <v>3062</v>
       </c>
@@ -20064,7 +20101,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="5" t="s">
         <v>3062</v>
       </c>
@@ -21133,7 +21170,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="5" t="s">
         <v>3063</v>
       </c>
@@ -21997,7 +22034,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="5" t="s">
         <v>3063</v>
       </c>
@@ -23023,7 +23060,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="5" t="s">
         <v>3063</v>
       </c>
@@ -23277,7 +23314,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="5" t="s">
         <v>3063</v>
       </c>
@@ -23727,7 +23764,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" s="5" t="s">
         <v>3063</v>
       </c>
@@ -24537,7 +24574,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" s="5" t="s">
         <v>3063</v>
       </c>
@@ -25329,7 +25366,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" s="5" t="s">
         <v>3063</v>
       </c>
@@ -26409,7 +26446,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A927" s="5" t="s">
         <v>3063</v>
       </c>
@@ -26699,7 +26736,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="943" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A943" s="5" t="s">
         <v>3063</v>
       </c>
@@ -26989,7 +27026,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A959" s="5" t="s">
         <v>3063</v>
       </c>
@@ -27405,7 +27442,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="982" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A982" s="5" t="s">
         <v>3063</v>
       </c>
@@ -30699,12 +30736,12 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="1166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1166" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1166" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1166" s="5" t="s">
         <v>3005</v>
@@ -30712,17 +30749,17 @@
       <c r="D1166" s="5" t="s">
         <v>3464</v>
       </c>
-      <c r="E1166"/>
+      <c r="E1166" s="1"/>
       <c r="F1166" s="9" t="s">
         <v>2139</v>
       </c>
     </row>
-    <row r="1167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1167" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1167" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1167" s="5" t="s">
         <v>3006</v>
@@ -30730,17 +30767,17 @@
       <c r="D1167" s="5" t="s">
         <v>3465</v>
       </c>
-      <c r="E1167"/>
+      <c r="E1167" s="1"/>
       <c r="F1167" s="9" t="s">
         <v>2141</v>
       </c>
     </row>
-    <row r="1168" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1168" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1168" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1168" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1168" s="5" t="s">
         <v>3007</v>
@@ -30748,17 +30785,19 @@
       <c r="D1168" s="5" t="s">
         <v>3466</v>
       </c>
-      <c r="E1168"/>
+      <c r="E1168" s="1">
+        <v>120</v>
+      </c>
       <c r="F1168" s="9" t="s">
         <v>2143</v>
       </c>
     </row>
-    <row r="1169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1169" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1169" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1169" s="5" t="s">
         <v>3008</v>
@@ -30766,17 +30805,19 @@
       <c r="D1169" s="5" t="s">
         <v>3467</v>
       </c>
-      <c r="E1169"/>
+      <c r="E1169" s="1">
+        <v>3</v>
+      </c>
       <c r="F1169" s="9" t="s">
         <v>2145</v>
       </c>
     </row>
-    <row r="1170" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1170" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1170" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1170" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1170" s="5" t="s">
         <v>3009</v>
@@ -30784,17 +30825,19 @@
       <c r="D1170" s="5" t="s">
         <v>3468</v>
       </c>
-      <c r="E1170"/>
+      <c r="E1170" s="1">
+        <v>60</v>
+      </c>
       <c r="F1170" s="9" t="s">
         <v>2147</v>
       </c>
     </row>
-    <row r="1171" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1171" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1171" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1171" s="5" t="s">
         <v>3010</v>
@@ -30802,17 +30845,19 @@
       <c r="D1171" s="5" t="s">
         <v>3469</v>
       </c>
-      <c r="E1171"/>
+      <c r="E1171" s="1">
+        <v>0.2</v>
+      </c>
       <c r="F1171" s="9" t="s">
         <v>2149</v>
       </c>
     </row>
-    <row r="1172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1172" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1172" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1172" s="5" t="s">
         <v>3011</v>
@@ -30820,17 +30865,17 @@
       <c r="D1172" s="5" t="s">
         <v>3122</v>
       </c>
-      <c r="E1172"/>
+      <c r="E1172" s="1"/>
       <c r="F1172" s="9" t="s">
         <v>2150</v>
       </c>
     </row>
-    <row r="1173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1173" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1173" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1173" s="5" t="s">
         <v>3012</v>
@@ -30838,17 +30883,17 @@
       <c r="D1173" s="5" t="s">
         <v>3168</v>
       </c>
-      <c r="E1173"/>
+      <c r="E1173" s="1"/>
       <c r="F1173" s="9" t="s">
         <v>2151</v>
       </c>
     </row>
-    <row r="1174" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1174" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A1174" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1174" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1174" s="5" t="s">
         <v>3013</v>
@@ -30856,17 +30901,17 @@
       <c r="D1174" s="5" t="s">
         <v>3071</v>
       </c>
-      <c r="E1174"/>
+      <c r="E1174" s="1"/>
       <c r="F1174" s="9" t="s">
         <v>2153</v>
       </c>
     </row>
-    <row r="1175" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1175" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1175" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1175" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1175" s="5" t="s">
         <v>3014</v>
@@ -30874,17 +30919,19 @@
       <c r="D1175" s="5" t="s">
         <v>3470</v>
       </c>
-      <c r="E1175"/>
+      <c r="E1175" s="1">
+        <v>15</v>
+      </c>
       <c r="F1175" s="9" t="s">
         <v>2155</v>
       </c>
     </row>
-    <row r="1176" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1176" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1176" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1176" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1176" s="5" t="s">
         <v>3015</v>
@@ -30892,17 +30939,19 @@
       <c r="D1176" s="5" t="s">
         <v>3471</v>
       </c>
-      <c r="E1176"/>
+      <c r="E1176" s="5" t="s">
+        <v>3706</v>
+      </c>
       <c r="F1176" s="9" t="s">
         <v>2157</v>
       </c>
     </row>
-    <row r="1177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1177" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1177" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1177" s="5" t="s">
         <v>3016</v>
@@ -30910,17 +30959,19 @@
       <c r="D1177" s="5" t="s">
         <v>3472</v>
       </c>
-      <c r="E1177"/>
+      <c r="E1177" s="1">
+        <v>3</v>
+      </c>
       <c r="F1177" s="9" t="s">
         <v>2159</v>
       </c>
     </row>
-    <row r="1178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1178" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1178" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1178" s="5" t="s">
         <v>3017</v>
@@ -30928,17 +30979,19 @@
       <c r="D1178" s="5" t="s">
         <v>3473</v>
       </c>
-      <c r="E1178"/>
+      <c r="E1178" s="1">
+        <v>3</v>
+      </c>
       <c r="F1178" s="9" t="s">
         <v>2161</v>
       </c>
     </row>
-    <row r="1179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1179" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1179" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1179" s="5" t="s">
         <v>3018</v>
@@ -30946,17 +30999,17 @@
       <c r="D1179" s="5" t="s">
         <v>3474</v>
       </c>
-      <c r="E1179"/>
+      <c r="E1179" s="1"/>
       <c r="F1179" s="9" t="s">
         <v>2163</v>
       </c>
     </row>
-    <row r="1180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1180" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1180" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1180" s="5" t="s">
         <v>3019</v>
@@ -30964,17 +31017,17 @@
       <c r="D1180" s="5" t="s">
         <v>3475</v>
       </c>
-      <c r="E1180"/>
+      <c r="E1180" s="1"/>
       <c r="F1180" s="9" t="s">
         <v>2165</v>
       </c>
     </row>
-    <row r="1181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1181" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1181" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1181" s="5" t="s">
         <v>3020</v>
@@ -30982,17 +31035,19 @@
       <c r="D1181" s="5" t="s">
         <v>3476</v>
       </c>
-      <c r="E1181"/>
+      <c r="E1181" s="1">
+        <v>2</v>
+      </c>
       <c r="F1181" s="9" t="s">
         <v>2167</v>
       </c>
     </row>
-    <row r="1182" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1182" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1182" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1182" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1182" s="5" t="s">
         <v>3021</v>
@@ -31000,17 +31055,19 @@
       <c r="D1182" s="5" t="s">
         <v>3213</v>
       </c>
-      <c r="E1182"/>
+      <c r="E1182" s="5" t="s">
+        <v>3706</v>
+      </c>
       <c r="F1182" s="9" t="s">
         <v>2169</v>
       </c>
     </row>
-    <row r="1183" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1183" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1183" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1183" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1183" s="5" t="s">
         <v>3022</v>
@@ -31018,17 +31075,19 @@
       <c r="D1183" s="5" t="s">
         <v>3477</v>
       </c>
-      <c r="E1183"/>
+      <c r="E1183" s="1">
+        <v>16</v>
+      </c>
       <c r="F1183" s="9" t="s">
         <v>2171</v>
       </c>
     </row>
-    <row r="1184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1184" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1184" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1184" s="5" t="s">
         <v>3023</v>
@@ -31036,17 +31095,19 @@
       <c r="D1184" s="5" t="s">
         <v>3478</v>
       </c>
-      <c r="E1184"/>
+      <c r="E1184" s="5" t="s">
+        <v>3706</v>
+      </c>
       <c r="F1184" s="9" t="s">
         <v>2173</v>
       </c>
     </row>
-    <row r="1185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1185" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1185" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1185" s="5" t="s">
         <v>3024</v>
@@ -31054,17 +31115,19 @@
       <c r="D1185" s="5" t="s">
         <v>3479</v>
       </c>
-      <c r="E1185"/>
+      <c r="E1185" s="1">
+        <v>2</v>
+      </c>
       <c r="F1185" s="9" t="s">
         <v>2175</v>
       </c>
     </row>
-    <row r="1186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1186" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1186" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1186" s="5" t="s">
         <v>3025</v>
@@ -31072,17 +31135,19 @@
       <c r="D1186" s="5" t="s">
         <v>3480</v>
       </c>
-      <c r="E1186"/>
+      <c r="E1186" s="1">
+        <v>0</v>
+      </c>
       <c r="F1186" s="9" t="s">
         <v>2177</v>
       </c>
     </row>
-    <row r="1187" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1187" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1187" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1187" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1187" s="5" t="s">
         <v>3026</v>
@@ -31090,17 +31155,19 @@
       <c r="D1187" s="5" t="s">
         <v>3481</v>
       </c>
-      <c r="E1187"/>
+      <c r="E1187" s="1">
+        <v>1</v>
+      </c>
       <c r="F1187" s="9" t="s">
         <v>2179</v>
       </c>
     </row>
-    <row r="1188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1188" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1188" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1188" s="5" t="s">
         <v>3027</v>
@@ -31108,17 +31175,19 @@
       <c r="D1188" s="5" t="s">
         <v>3482</v>
       </c>
-      <c r="E1188"/>
+      <c r="E1188" s="1">
+        <v>100</v>
+      </c>
       <c r="F1188" s="9" t="s">
         <v>2181</v>
       </c>
     </row>
-    <row r="1189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1189" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1189" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1189" s="5" t="s">
         <v>3028</v>
@@ -31126,17 +31195,19 @@
       <c r="D1189" s="5" t="s">
         <v>3483</v>
       </c>
-      <c r="E1189"/>
+      <c r="E1189" s="1">
+        <v>60</v>
+      </c>
       <c r="F1189" s="9" t="s">
         <v>2183</v>
       </c>
     </row>
-    <row r="1190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1190" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1190" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1190" s="5" t="s">
         <v>3029</v>
@@ -31144,17 +31215,19 @@
       <c r="D1190" s="5" t="s">
         <v>3484</v>
       </c>
-      <c r="E1190"/>
+      <c r="E1190" s="5" t="s">
+        <v>3706</v>
+      </c>
       <c r="F1190" s="9" t="s">
         <v>2185</v>
       </c>
     </row>
-    <row r="1191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1191" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1191" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1191" s="5" t="s">
         <v>3030</v>
@@ -31162,17 +31235,19 @@
       <c r="D1191" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="E1191"/>
+      <c r="E1191" s="5" t="s">
+        <v>3736</v>
+      </c>
       <c r="F1191" s="9" t="s">
         <v>2187</v>
       </c>
     </row>
-    <row r="1192" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1192" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1192" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1192" s="5" t="s">
         <v>3031</v>
@@ -31180,17 +31255,19 @@
       <c r="D1192" s="5" t="s">
         <v>3485</v>
       </c>
-      <c r="E1192"/>
+      <c r="E1192" s="1" t="s">
+        <v>3740</v>
+      </c>
       <c r="F1192" s="9" t="s">
         <v>2189</v>
       </c>
     </row>
-    <row r="1193" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1193" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1193" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1193" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1193" s="5" t="s">
         <v>3032</v>
@@ -31198,17 +31275,19 @@
       <c r="D1193" s="5" t="s">
         <v>3486</v>
       </c>
-      <c r="E1193"/>
+      <c r="E1193" s="5">
+        <v>0</v>
+      </c>
       <c r="F1193" s="9" t="s">
         <v>2191</v>
       </c>
     </row>
-    <row r="1194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1194" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1194" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1194" s="5" t="s">
         <v>3033</v>
@@ -31216,17 +31295,17 @@
       <c r="D1194" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="E1194"/>
+      <c r="E1194" s="1"/>
       <c r="F1194" s="9" t="s">
         <v>2193</v>
       </c>
     </row>
-    <row r="1195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1195" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1195" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1195" s="5" t="s">
         <v>3034</v>
@@ -31234,17 +31313,17 @@
       <c r="D1195" s="5" t="s">
         <v>3487</v>
       </c>
-      <c r="E1195"/>
+      <c r="E1195" s="1"/>
       <c r="F1195" s="9" t="s">
         <v>2195</v>
       </c>
     </row>
-    <row r="1196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1196" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1196" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1196" s="5" t="s">
         <v>3035</v>
@@ -31252,17 +31331,17 @@
       <c r="D1196" s="5" t="s">
         <v>3488</v>
       </c>
-      <c r="E1196"/>
+      <c r="E1196" s="1"/>
       <c r="F1196" s="9" t="s">
         <v>2197</v>
       </c>
     </row>
-    <row r="1197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1197" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1197" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1197" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1197" s="5" t="s">
         <v>3036</v>
@@ -31270,17 +31349,19 @@
       <c r="D1197" s="5" t="s">
         <v>3489</v>
       </c>
-      <c r="E1197"/>
+      <c r="E1197" s="5" t="s">
+        <v>3706</v>
+      </c>
       <c r="F1197" s="9" t="s">
         <v>2199</v>
       </c>
     </row>
-    <row r="1198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1198" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1198" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1198" s="5" t="s">
         <v>3037</v>
@@ -31288,17 +31369,19 @@
       <c r="D1198" s="5" t="s">
         <v>3113</v>
       </c>
-      <c r="E1198"/>
+      <c r="E1198" s="1" t="s">
+        <v>3113</v>
+      </c>
       <c r="F1198" s="9" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="1199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1199" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1199" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1199" s="5" t="s">
         <v>3038</v>
@@ -31306,17 +31389,19 @@
       <c r="D1199" s="5" t="s">
         <v>3114</v>
       </c>
-      <c r="E1199"/>
+      <c r="E1199" s="1" t="s">
+        <v>3736</v>
+      </c>
       <c r="F1199" s="9" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="1200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1200" s="5" t="s">
         <v>2963</v>
       </c>
       <c r="B1200" s="5" t="s">
-        <v>2971</v>
+        <v>3739</v>
       </c>
       <c r="C1200" s="5" t="s">
         <v>3039</v>
@@ -31324,7 +31409,7 @@
       <c r="D1200" s="5" t="s">
         <v>3115</v>
       </c>
-      <c r="E1200"/>
+      <c r="E1200" s="1"/>
       <c r="F1200" s="9" t="s">
         <v>1025</v>
       </c>
@@ -33615,7 +33700,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="1328" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1328" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1328" s="5" t="s">
         <v>2976</v>
       </c>
@@ -34133,7 +34218,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="1357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1357" s="5" t="s">
         <v>2976</v>
       </c>
@@ -34495,7 +34580,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="1377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1377" s="5" t="s">
         <v>2976</v>
       </c>
@@ -36265,7 +36350,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="1475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1475" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1475" s="5" t="s">
         <v>2976</v>
       </c>
@@ -38784,7 +38869,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="1615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1615" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1615" s="5" t="s">
         <v>2996</v>
       </c>
@@ -39110,7 +39195,7 @@
         <v>2846</v>
       </c>
     </row>
-    <row r="1633" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1633" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1633" s="5" t="s">
         <v>2996</v>
       </c>
@@ -39382,7 +39467,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="1648" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1648" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1648" s="5" t="s">
         <v>2996</v>
       </c>
@@ -39672,7 +39757,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="1664" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1664" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1664" s="5" t="s">
         <v>2996</v>
       </c>
@@ -40258,10 +40343,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O1694" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="3">
+    <filterColumn colId="1">
       <filters>
-        <filter val="nphases"/>
-        <filter val="phases"/>
+        <filter val="REGCONTROL"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -40271,25 +40355,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBCF528E-AAA4-4C97-9EBC-724EAE634AB1}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1072914-3AB3-4465-8FE6-52A7D0A095E1}">
+  <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1072914-3AB3-4465-8FE6-52A7D0A095E1}">
-  <dimension ref="A1:AB12"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:S12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40630,13 +40700,197 @@
         <v>3732</v>
       </c>
     </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>3122</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>3124</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>3125</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>3110</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>3111</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>3112</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>3113</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>3737</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>100</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>3738</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>3466</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>3467</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>3468</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>3469</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>3470</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>3471</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>3476</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>3213</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>3477</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>3478</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>3480</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>3481</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>3482</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>3483</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>3484</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>3486</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>3489</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>3113</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>120</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>15</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>3706</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>3706</v>
+      </c>
+      <c r="I18" s="1">
+        <v>16</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>3706</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>100</v>
+      </c>
+      <c r="N18" s="1">
+        <v>60</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>3706</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>3736</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>0</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>3706</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>3113</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>3736</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA528E1-F644-4044-97C9-D7CF4F5A7F75}">
   <dimension ref="A1:J1881"/>
   <sheetViews>
@@ -54024,7 +54278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q1881"/>
   <sheetViews>
